--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\UxGame\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF36A9-127A-4D7A-AE77-5A9BE45E27F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B2EBD-B6EA-469C-A2EF-0881DF4EE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -115,24 +115,14 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
-    <t>item.xlsx</t>
-  </si>
-  <si>
-    <t>item.TbTest</t>
+    <t>item/item.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.xlsx</t>
+    <t>TbItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +148,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -195,11 +193,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +491,10 @@
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="54.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="6" max="6" width="91.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,36 +601,26 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Datas/__tables__.xlsx
+++ b/Luban/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\UxGame\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B2EBD-B6EA-469C-A2EF-0881DF4EE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5671D1E-81EF-41DF-A8E5-8C1E5A9A89D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>TbItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/test.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1+key2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,6 +631,23 @@
       </c>
       <c r="H4" s="2"/>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H7" s="2"/>
     </row>
